--- a/20180126_SmartCut/Meeting/20190301 Meeting/ida/20190220 multi ida base shear.xlsx
+++ b/20180126_SmartCut/Meeting/20190301 Meeting/ida/20190220 multi ida base shear.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\VbaProject\20180126_SmartCut\Meeting\20190301 Meeting\ida\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD0D832C-D3BC-4B2E-A368-BF4D5952D8D2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AC6169BD-934D-44E8-BDF8-712394C6249E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Base Reactions" sheetId="2" r:id="rId1"/>
     <sheet name="工作表1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -559,7 +558,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1007,11 +1006,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C4792F-513A-48AC-AD52-1960153DFE3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -6229,7 +6228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB471325-30EF-4FE5-8B89-8563E5DE6FED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
